--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>TOTAL NO:</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/21,23,24/2023</t>
+  </si>
+  <si>
+    <t>3/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2974,9 +2983,9 @@
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A67"/>
+      <pane ySplit="3570" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3146,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.44200000000002149</v>
+        <v>2.9420000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3147,7 +3156,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>100.667</v>
+        <v>98.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5177,15 +5186,19 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>44958</v>
+      </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -5193,24 +5206,36 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
+      <c r="A107" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H107" s="39">
+        <v>3</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
-      <c r="B108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
@@ -5219,10 +5244,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H108" s="39"/>
+      <c r="H108" s="39">
+        <v>2</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -331,9 +331,6 @@
     <t>HALFDAY</t>
   </si>
   <si>
-    <t>TOTAL NO:</t>
-  </si>
-  <si>
     <t>SL(3-0-0)</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>3/27,28/2023</t>
+  </si>
+  <si>
+    <t>VL</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +886,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1224,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1267,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1331,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1391,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1457,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1520,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1618,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1677,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1742,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1785,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1860,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2046,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2112,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2170,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2236,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2292,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2367,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2410,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2476,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2532,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2658,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" name="REMARKS" dataDxfId="1"/>
@@ -2983,9 +2989,9 @@
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,7 +5216,7 @@
         <v>44986</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -5228,7 +5234,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5250,7 +5256,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5955,7 +5961,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,29 +6181,30 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="74">
+        <v>45012</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="75">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="11">
-        <f>SUM(Table2[ABSENCE UNDERTIME W/O PAY])</f>
-        <v>10.094000000000001</v>
-      </c>
+      <c r="A23" s="74"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DF89A-23C9-49E6-AAD1-A53613D3FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -346,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -680,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,9 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -886,12 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,7 +1216,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1259,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1323,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1383,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1449,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1512,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1610,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1669,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1734,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1777,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1852,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2038,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2104,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2162,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2228,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2284,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2359,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2402,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2468,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2524,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,25 +2620,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="14"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="13"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="11"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="8">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2658,11 +2650,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" name="REMARKS" dataDxfId="1"/>
-    <tableColumn id="3" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2964,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2974,7 +2966,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2982,95 +2974,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A94" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3078,7 +3070,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3091,24 +3083,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3143,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3152,7 +3144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.9420000000000215</v>
+        <v>0.44200000000002149</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3162,12 +3154,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.167000000000002</v>
+        <v>95.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3189,7 +3181,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3209,7 +3201,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3229,7 +3221,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3249,7 +3241,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3269,7 +3261,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3289,7 +3281,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3309,7 +3301,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3329,7 +3321,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3349,7 +3341,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3369,7 +3361,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3389,7 +3381,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3409,7 +3401,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3433,7 +3425,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3451,7 +3443,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3471,7 +3463,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3491,7 +3483,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3511,7 +3503,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3535,7 +3527,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3555,7 +3547,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -3577,7 +3569,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3597,7 +3589,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -3617,7 +3609,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3637,7 +3629,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3657,7 +3649,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -3677,7 +3669,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -3697,7 +3689,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -3717,7 +3709,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -3737,7 +3729,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -3763,7 +3755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -3783,7 +3775,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -3803,7 +3795,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>54</v>
       </c>
@@ -3821,7 +3813,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -3845,7 +3837,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -3869,7 +3861,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -3891,7 +3883,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>55</v>
@@ -3911,7 +3903,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3931,7 +3923,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3951,7 +3943,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3971,7 +3963,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3997,7 +3989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -4017,7 +4009,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -4043,7 +4035,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -4069,7 +4061,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -4089,7 +4081,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -4109,7 +4101,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -4129,7 +4121,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>59</v>
       </c>
@@ -4147,7 +4139,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -4167,7 +4159,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -4187,7 +4179,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -4207,7 +4199,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -4227,7 +4219,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -4247,7 +4239,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -4273,7 +4265,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44378</v>
       </c>
@@ -4293,7 +4285,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -4313,7 +4305,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
@@ -4333,7 +4325,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -4353,7 +4345,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
@@ -4373,7 +4365,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44531</v>
       </c>
@@ -4399,7 +4391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>58</v>
@@ -4419,7 +4411,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>62</v>
       </c>
@@ -4437,7 +4429,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4463,7 +4455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4483,7 +4475,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4507,7 +4499,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>75</v>
@@ -4527,7 +4519,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>76</v>
@@ -4547,7 +4539,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44652</v>
       </c>
@@ -4571,7 +4563,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>78</v>
@@ -4591,7 +4583,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>79</v>
@@ -4611,7 +4603,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4635,7 +4627,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>81</v>
@@ -4655,7 +4647,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -4675,7 +4667,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4699,7 +4691,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -4719,7 +4711,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>79</v>
@@ -4739,7 +4731,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44743</v>
       </c>
@@ -4763,7 +4755,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>85</v>
@@ -4783,7 +4775,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>76</v>
@@ -4803,7 +4795,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44774</v>
       </c>
@@ -4827,7 +4819,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>86</v>
@@ -4847,7 +4839,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>82</v>
@@ -4867,7 +4859,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44805</v>
       </c>
@@ -4891,7 +4883,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>48</v>
@@ -4911,7 +4903,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>88</v>
@@ -4931,7 +4923,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>72</v>
@@ -4951,7 +4943,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4971,7 +4963,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44835</v>
       </c>
@@ -4995,7 +4987,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5015,7 +5007,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>82</v>
@@ -5035,7 +5027,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44866</v>
       </c>
@@ -5059,7 +5051,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>93</v>
@@ -5079,7 +5071,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>73</v>
@@ -5099,7 +5091,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -5125,7 +5117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>66</v>
       </c>
@@ -5143,7 +5135,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44927</v>
       </c>
@@ -5169,7 +5161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -5191,42 +5183,38 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C106" s="13"/>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H107" s="39">
         <v>3</v>
@@ -5237,7 +5225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>69</v>
@@ -5259,7 +5247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5275,7 +5263,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5291,7 +5279,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5307,7 +5295,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5323,7 +5311,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5339,7 +5327,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5355,7 +5343,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5371,7 +5359,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5387,7 +5375,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5403,7 +5391,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5419,7 +5407,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5435,7 +5423,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5451,7 +5439,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5467,7 +5455,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5483,7 +5471,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5499,7 +5487,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5515,7 +5503,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5531,7 +5519,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5547,7 +5535,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5563,7 +5551,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5579,7 +5567,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5595,7 +5583,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5611,7 +5599,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5627,7 +5615,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5643,7 +5631,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5659,7 +5647,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5675,7 +5663,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5691,7 +5679,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5707,7 +5695,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5723,7 +5711,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5739,7 +5727,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5755,7 +5743,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5771,7 +5759,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5787,7 +5775,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5803,7 +5791,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5819,7 +5807,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5835,7 +5823,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5851,7 +5839,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5867,7 +5855,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5883,7 +5871,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5899,7 +5887,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="15"/>
       <c r="C149" s="42"/>
@@ -5931,10 +5919,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5957,21 +5945,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
@@ -5981,43 +5969,43 @@
       <c r="C1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="50"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="70"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="66"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="70"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="69"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -6028,7 +6016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>44903</v>
       </c>
@@ -6039,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>44911</v>
       </c>
@@ -6050,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>44914</v>
       </c>
@@ -6061,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="51">
         <v>44916</v>
       </c>
@@ -6072,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>44917</v>
       </c>
@@ -6083,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>44918</v>
       </c>
@@ -6094,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>44922</v>
       </c>
@@ -6105,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -6114,7 +6102,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>44904</v>
       </c>
@@ -6125,7 +6113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>44909</v>
       </c>
@@ -6136,7 +6124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>44910</v>
       </c>
@@ -6147,7 +6135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>44915</v>
       </c>
@@ -6158,7 +6146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>44923</v>
       </c>
@@ -6169,7 +6157,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>44924</v>
       </c>
@@ -6180,158 +6168,158 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="74">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="51">
         <v>45012</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6343,10 +6331,10 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6359,41 +6347,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="71" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="J1" s="72" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6422,7 +6410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>21.247</v>
       </c>
@@ -6448,17 +6436,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6472,14 +6460,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6506,7 +6494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6532,7 +6520,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6558,7 +6546,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6584,7 +6572,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6610,7 +6598,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6636,7 +6624,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6662,7 +6650,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6688,7 +6676,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6708,7 +6696,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6728,7 +6716,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6748,7 +6736,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6769,7 +6757,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6790,7 +6778,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6811,7 +6799,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6832,7 +6820,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6853,7 +6841,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6874,7 +6862,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6895,7 +6883,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6916,7 +6904,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6937,7 +6925,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6958,7 +6946,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6979,7 +6967,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7000,7 +6988,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7021,7 +7009,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7042,7 +7030,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7063,7 +7051,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7084,7 +7072,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7105,7 +7093,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7126,7 +7114,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7147,7 +7135,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7168,7 +7156,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7177,7 +7165,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7186,7 +7174,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7195,7 +7183,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7204,7 +7192,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7213,7 +7201,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7222,7 +7210,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7231,7 +7219,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7240,7 +7228,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7249,7 +7237,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7258,7 +7246,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7267,7 +7255,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7276,7 +7264,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7285,7 +7273,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7294,7 +7282,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7303,7 +7291,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7312,7 +7300,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7321,7 +7309,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7330,7 +7318,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7339,7 +7327,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7348,7 +7336,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7357,7 +7345,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7366,7 +7354,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7375,7 +7363,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7384,7 +7372,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7393,7 +7381,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7402,7 +7390,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7411,7 +7399,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7420,7 +7408,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7429,7 +7417,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DF89A-23C9-49E6-AAD1-A53613D3FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCB9F6-EE16-4275-992D-EB0AB85B89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2983,7 +2983,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5949,7 +5949,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B8" sqref="B8:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6192,7 +6192,10 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <f>SUM(C8:C22)</f>
+        <v>14.094000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCB9F6-EE16-4275-992D-EB0AB85B89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -347,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1216,7 +1215,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1258,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1382,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1448,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1511,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1609,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1668,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1733,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1776,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1851,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2037,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2103,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2161,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2227,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2358,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2401,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2467,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2523,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,25 +2619,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="12">
+    <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="14"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="13"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="10">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="11"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="8">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="8">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="6"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2650,11 +2649,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="REMARKS" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
+    <tableColumn id="1" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="3" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2956,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2966,7 +2965,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2974,34 +2973,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3021,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3040,7 +3039,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3062,7 +3061,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3070,7 +3069,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3083,7 +3082,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3100,7 +3099,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3144,7 +3143,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.44200000000002149</v>
+        <v>4.1920000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3154,12 +3153,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.667000000000002</v>
+        <v>98.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3180,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3201,7 +3200,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3221,7 +3220,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3341,7 +3340,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3361,7 +3360,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3381,7 +3380,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3401,7 +3400,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +3442,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3547,7 +3546,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -3569,7 +3568,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3589,7 +3588,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -3775,7 +3774,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -3795,7 +3794,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>54</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -3883,7 +3882,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>55</v>
@@ -3903,7 +3902,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -4081,7 +4080,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -4101,7 +4100,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>59</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -4159,7 +4158,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -4199,7 +4198,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -4239,7 +4238,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44378</v>
       </c>
@@ -4285,7 +4284,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -4305,7 +4304,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
@@ -4325,7 +4324,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -4345,7 +4344,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
@@ -4365,7 +4364,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44531</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>58</v>
@@ -4411,7 +4410,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>62</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4455,7 +4454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4475,7 +4474,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4499,7 +4498,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>75</v>
@@ -4519,7 +4518,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>76</v>
@@ -4539,7 +4538,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44652</v>
       </c>
@@ -4563,7 +4562,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>78</v>
@@ -4583,7 +4582,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>79</v>
@@ -4603,7 +4602,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4627,7 +4626,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>81</v>
@@ -4647,7 +4646,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -4667,7 +4666,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -4711,7 +4710,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>79</v>
@@ -4731,7 +4730,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44743</v>
       </c>
@@ -4755,7 +4754,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>85</v>
@@ -4775,7 +4774,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>76</v>
@@ -4795,7 +4794,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44774</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>86</v>
@@ -4839,7 +4838,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>82</v>
@@ -4859,7 +4858,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44805</v>
       </c>
@@ -4883,7 +4882,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>48</v>
@@ -4903,7 +4902,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>88</v>
@@ -4923,7 +4922,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>72</v>
@@ -4943,7 +4942,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4963,7 +4962,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44835</v>
       </c>
@@ -4987,7 +4986,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5007,7 +5006,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>82</v>
@@ -5027,7 +5026,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44866</v>
       </c>
@@ -5051,7 +5050,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>93</v>
@@ -5071,7 +5070,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>73</v>
@@ -5091,7 +5090,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>66</v>
       </c>
@@ -5135,7 +5134,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44927</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -5183,38 +5182,42 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39">
         <v>3</v>
@@ -5225,7 +5228,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>69</v>
@@ -5247,25 +5250,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <v>45017</v>
+      </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
@@ -5274,12 +5285,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="39"/>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="49">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5295,7 +5310,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5311,7 +5326,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5327,7 +5342,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5343,7 +5358,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5359,7 +5374,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5375,7 +5390,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5391,7 +5406,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5407,7 +5422,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5423,7 +5438,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5439,7 +5454,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5455,7 +5470,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5471,7 +5486,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5487,7 +5502,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5503,7 +5518,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5519,7 +5534,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5535,7 +5550,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5551,7 +5566,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5567,7 +5582,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5583,7 +5598,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5599,7 +5614,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5615,7 +5630,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5631,7 +5646,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5647,7 +5662,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5663,7 +5678,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5679,7 +5694,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5695,7 +5710,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5711,7 +5726,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5727,7 +5742,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5743,7 +5758,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5759,7 +5774,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5775,7 +5790,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5791,7 +5806,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5807,7 +5822,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5823,7 +5838,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5839,7 +5854,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5855,7 +5870,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5871,7 +5886,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5887,7 +5902,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="15"/>
       <c r="C149" s="42"/>
@@ -5919,10 +5934,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5945,21 +5960,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5987,7 @@
       <c r="D1" s="67"/>
       <c r="E1" s="68"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
@@ -5983,7 +5998,7 @@
       <c r="D2" s="66"/>
       <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
@@ -5998,14 +6013,14 @@
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -6016,7 +6031,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>44903</v>
       </c>
@@ -6027,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>44911</v>
       </c>
@@ -6038,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>44914</v>
       </c>
@@ -6049,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>44916</v>
       </c>
@@ -6060,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>44917</v>
       </c>
@@ -6071,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>44918</v>
       </c>
@@ -6082,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="51">
         <v>44922</v>
       </c>
@@ -6093,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -6102,7 +6117,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>44904</v>
       </c>
@@ -6113,7 +6128,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>44909</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>44910</v>
       </c>
@@ -6135,7 +6150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>44915</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>44923</v>
       </c>
@@ -6157,7 +6172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>44924</v>
       </c>
@@ -6168,7 +6183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="51">
         <v>45012</v>
       </c>
@@ -6179,17 +6194,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -6197,132 +6212,132 @@
         <v>14.094000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6334,10 +6349,10 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6350,28 +6365,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -6384,7 +6399,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6413,7 +6428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>21.247</v>
       </c>
@@ -6439,17 +6454,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6470,7 +6485,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6497,7 +6512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6523,7 +6538,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6549,7 +6564,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6575,7 +6590,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6601,7 +6616,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6627,7 +6642,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6653,7 +6668,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6679,7 +6694,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6719,7 +6734,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6739,7 +6754,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6760,7 +6775,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6781,7 +6796,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6802,7 +6817,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6823,7 +6838,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6844,7 +6859,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6865,7 +6880,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6886,7 +6901,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6907,7 +6922,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6928,7 +6943,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6949,7 +6964,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6970,7 +6985,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6991,7 +7006,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7012,7 +7027,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7033,7 +7048,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7054,7 +7069,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7075,7 +7090,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7096,7 +7111,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7117,7 +7132,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7138,7 +7153,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7168,7 +7183,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7177,7 +7192,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7186,7 +7201,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7195,7 +7210,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7204,7 +7219,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7213,7 +7228,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7222,7 +7237,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7231,7 +7246,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7240,7 +7255,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7249,7 +7264,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7258,7 +7273,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7267,7 +7282,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7276,7 +7291,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7285,7 +7300,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7294,7 +7309,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7303,7 +7318,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7312,7 +7327,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7321,7 +7336,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7330,7 +7345,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7339,7 +7354,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7348,7 +7363,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7357,7 +7372,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7366,7 +7381,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7375,7 +7390,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7384,7 +7399,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7393,7 +7408,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7402,7 +7417,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7411,7 +7426,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7420,7 +7435,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>VL</t>
+  </si>
+  <si>
+    <t>05/29-31/2023</t>
   </si>
 </sst>
 </file>
@@ -2982,7 +2985,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3146,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.1920000000000215</v>
+        <v>5.4420000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3153,7 +3156,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.417000000000002</v>
+        <v>96.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5277,13 +5280,15 @@
       <c r="B110" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C110" s="13"/>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39">
         <v>1</v>
@@ -5296,7 +5301,9 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -5308,11 +5315,17 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="49">
+        <v>45072</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
@@ -5321,10 +5334,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="39">
+        <v>3</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>05/29-31/2023</t>
+  </si>
+  <si>
+    <t>6/13,14/2023</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1264,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1388,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1454,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1517,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1615,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1674,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1739,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1782,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1857,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2043,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2109,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2167,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2233,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2289,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2364,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2407,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2529,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2988,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3159,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.667000000000002</v>
+        <v>94.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5345,7 +5348,9 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
@@ -5354,10 +5359,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H113" s="39"/>
+      <c r="H113" s="39">
+        <v>2</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C513729-5852-40E9-8F44-AB2DA991439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1221,7 +1222,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1265,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1329,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1389,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1455,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1518,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1616,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1675,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1740,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1783,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1858,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2044,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2110,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2168,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2234,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2290,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2365,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2408,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2474,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2530,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2609,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2625,25 +2626,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="14"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="13"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="11"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="8">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2655,11 +2656,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" name="REMARKS" dataDxfId="1"/>
-    <tableColumn id="3" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2961,7 +2962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2971,7 +2972,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2979,34 +2980,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3027,7 +3028,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3068,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3075,7 +3076,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3088,7 +3089,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3105,7 +3106,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3149,7 +3150,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.4420000000000215</v>
+        <v>6.6920000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3159,12 +3160,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.667000000000002</v>
+        <v>94.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3187,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3206,7 +3207,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3226,7 +3227,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3246,7 +3247,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3266,7 +3267,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3286,7 +3287,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3306,7 +3307,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3326,7 +3327,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3346,7 +3347,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3366,7 +3367,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3386,7 +3387,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3406,7 +3407,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3430,7 +3431,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3468,7 +3469,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3508,7 +3509,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3552,7 +3553,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -3574,7 +3575,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3594,7 +3595,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3634,7 +3635,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3654,7 +3655,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -3674,7 +3675,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -3694,7 +3695,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -3714,7 +3715,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -3780,7 +3781,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -3800,7 +3801,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>54</v>
       </c>
@@ -3818,7 +3819,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -3888,7 +3889,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>55</v>
@@ -3908,7 +3909,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3928,7 +3929,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3948,7 +3949,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -4014,7 +4015,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -4086,7 +4087,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -4106,7 +4107,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -4126,7 +4127,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>59</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -4164,7 +4165,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -4184,7 +4185,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -4224,7 +4225,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44378</v>
       </c>
@@ -4290,7 +4291,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -4310,7 +4311,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
@@ -4330,7 +4331,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -4350,7 +4351,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44531</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>58</v>
@@ -4416,7 +4417,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>62</v>
       </c>
@@ -4434,7 +4435,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4480,7 +4481,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4504,7 +4505,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>75</v>
@@ -4524,7 +4525,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>76</v>
@@ -4544,7 +4545,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44652</v>
       </c>
@@ -4568,7 +4569,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>78</v>
@@ -4588,7 +4589,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>79</v>
@@ -4608,7 +4609,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4632,7 +4633,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>81</v>
@@ -4652,7 +4653,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -4672,7 +4673,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4696,7 +4697,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -4716,7 +4717,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>79</v>
@@ -4736,7 +4737,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44743</v>
       </c>
@@ -4760,7 +4761,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>85</v>
@@ -4780,7 +4781,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>76</v>
@@ -4800,7 +4801,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44774</v>
       </c>
@@ -4824,7 +4825,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>86</v>
@@ -4844,7 +4845,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>82</v>
@@ -4864,7 +4865,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44805</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>48</v>
@@ -4908,7 +4909,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>88</v>
@@ -4928,7 +4929,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>72</v>
@@ -4948,7 +4949,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4968,7 +4969,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44835</v>
       </c>
@@ -4992,7 +4993,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5012,7 +5013,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>82</v>
@@ -5032,7 +5033,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44866</v>
       </c>
@@ -5056,7 +5057,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>93</v>
@@ -5076,7 +5077,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>73</v>
@@ -5096,7 +5097,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>66</v>
       </c>
@@ -5140,7 +5141,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44927</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -5188,7 +5189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
@@ -5208,7 +5209,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>69</v>
@@ -5256,7 +5257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -5276,7 +5277,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -5322,20 +5323,22 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45078</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39">
         <v>3</v>
@@ -5346,7 +5349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>69</v>
@@ -5368,9 +5371,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="20"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
@@ -5379,12 +5386,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="39"/>
+      <c r="H114" s="39">
+        <v>1</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="49">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5400,7 +5411,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5416,7 +5427,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5432,7 +5443,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5448,7 +5459,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5464,7 +5475,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5480,7 +5491,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5496,7 +5507,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5512,7 +5523,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5528,7 +5539,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5544,7 +5555,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5560,7 +5571,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5576,7 +5587,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5592,7 +5603,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5608,7 +5619,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5624,7 +5635,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5640,7 +5651,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5656,7 +5667,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5672,7 +5683,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5688,7 +5699,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5704,7 +5715,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5720,7 +5731,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5736,7 +5747,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5752,7 +5763,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5768,7 +5779,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5784,7 +5795,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5800,7 +5811,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5816,7 +5827,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5832,7 +5843,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5848,7 +5859,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5864,7 +5875,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5880,7 +5891,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5896,7 +5907,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5912,7 +5923,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5928,7 +5939,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="15"/>
       <c r="C149" s="42"/>
@@ -5960,10 +5971,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5986,21 +5997,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
@@ -6013,7 +6024,7 @@
       <c r="D1" s="67"/>
       <c r="E1" s="68"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
@@ -6024,7 +6035,7 @@
       <c r="D2" s="66"/>
       <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
@@ -6039,14 +6050,14 @@
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -6057,7 +6068,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>44903</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>44911</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>44914</v>
       </c>
@@ -6090,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="51">
         <v>44916</v>
       </c>
@@ -6101,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>44917</v>
       </c>
@@ -6112,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>44918</v>
       </c>
@@ -6123,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>44922</v>
       </c>
@@ -6134,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -6143,7 +6154,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>44904</v>
       </c>
@@ -6154,7 +6165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>44909</v>
       </c>
@@ -6165,7 +6176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>44910</v>
       </c>
@@ -6176,7 +6187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>44915</v>
       </c>
@@ -6187,7 +6198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>44923</v>
       </c>
@@ -6198,7 +6209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>44924</v>
       </c>
@@ -6209,7 +6220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>45012</v>
       </c>
@@ -6220,17 +6231,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -6238,132 +6249,132 @@
         <v>14.094000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6375,10 +6386,10 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6391,28 +6402,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -6425,7 +6436,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>21.247</v>
       </c>
@@ -6480,17 +6491,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6511,7 +6522,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6564,7 +6575,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6590,7 +6601,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6616,7 +6627,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6642,7 +6653,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6668,7 +6679,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6694,7 +6705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6720,7 +6731,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6760,7 +6771,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6780,7 +6791,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6801,7 +6812,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6822,7 +6833,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6843,7 +6854,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6864,7 +6875,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6885,7 +6896,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6906,7 +6917,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6927,7 +6938,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6948,7 +6959,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6990,7 +7001,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7011,7 +7022,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7095,7 +7106,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7137,7 +7148,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7158,7 +7169,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7179,7 +7190,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7200,7 +7211,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7209,7 +7220,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7218,7 +7229,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7227,7 +7238,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7236,7 +7247,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7245,7 +7256,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7254,7 +7265,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7263,7 +7274,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7272,7 +7283,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7281,7 +7292,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7290,7 +7301,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7299,7 +7310,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7308,7 +7319,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7317,7 +7328,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7326,7 +7337,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7335,7 +7346,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7344,7 +7355,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7353,7 +7364,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7362,7 +7373,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7371,7 +7382,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7380,7 +7391,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7389,7 +7400,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7398,7 +7409,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7407,7 +7418,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7416,7 +7427,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7425,7 +7436,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7434,7 +7445,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7443,7 +7454,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7452,7 +7463,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7461,7 +7472,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C513729-5852-40E9-8F44-AB2DA991439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31984D6F-D4AB-4164-BF76-1AB2B2285615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -341,13 +341,16 @@
     <t>3/27,28/2023</t>
   </si>
   <si>
-    <t>VL</t>
-  </si>
-  <si>
     <t>05/29-31/2023</t>
   </si>
   <si>
     <t>6/13,14/2023</t>
+  </si>
+  <si>
+    <t>7/17,18/2023</t>
+  </si>
+  <si>
+    <t>7/26,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2987,9 +2990,9 @@
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A109" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3150,7 +3153,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.6920000000000215</v>
+        <v>7.9420000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3160,7 +3163,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>94.917000000000002</v>
+        <v>92.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5346,7 +5349,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -5368,7 +5371,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
       <c r="K113" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5378,13 +5381,15 @@
       <c r="B114" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39">
         <v>1</v>
@@ -5397,7 +5402,9 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -5406,14 +5413,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="39"/>
+      <c r="H115" s="39">
+        <v>2</v>
+      </c>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
@@ -5422,10 +5435,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>2</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="20" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
@@ -6001,7 +6018,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6221,15 +6238,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="51">
-        <v>45012</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
+      <c r="A22" s="51"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
@@ -6246,7 +6257,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <f>SUM(C8:C22)</f>
-        <v>14.094000000000001</v>
+        <v>10.094000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31984D6F-D4AB-4164-BF76-1AB2B2285615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -351,12 +350,18 @@
   </si>
   <si>
     <t>7/26,28/2023</t>
+  </si>
+  <si>
+    <t>8/7-9/2023</t>
+  </si>
+  <si>
+    <t>9/18,21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1225,7 +1230,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1273,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1337,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1397,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1463,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1526,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1624,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1683,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1748,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1791,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1866,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2052,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2118,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2176,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2242,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2298,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2373,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2416,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2482,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2538,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2617,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2629,25 +2634,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="12">
+    <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="14"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="13"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="10">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="11"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="8">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="8">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="6"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2659,11 +2664,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:C25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="REMARKS" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
+    <tableColumn id="1" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="3" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2965,7 +2970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2975,7 +2980,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2983,34 +2988,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomLeft" activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3036,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3049,7 +3054,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3076,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3079,7 +3084,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3092,7 +3097,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3109,7 +3114,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3153,7 +3158,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.9420000000000215</v>
+        <v>8.1920000000000215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3163,12 +3168,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>92.167000000000002</v>
+        <v>86.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3190,7 +3195,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3210,7 +3215,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3230,7 +3235,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3250,7 +3255,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3270,7 +3275,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3290,7 +3295,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3310,7 +3315,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3330,7 +3335,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3350,7 +3355,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3370,7 +3375,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3390,7 +3395,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3410,7 +3415,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>47</v>
       </c>
@@ -3452,7 +3457,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3472,7 +3477,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3492,7 +3497,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -3556,7 +3561,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -3578,7 +3583,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3598,7 +3603,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -3618,7 +3623,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -3638,7 +3643,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -3658,7 +3663,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -3678,7 +3683,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -3698,7 +3703,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -3718,7 +3723,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -3738,7 +3743,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -3784,7 +3789,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -3804,7 +3809,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>54</v>
       </c>
@@ -3822,7 +3827,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -3870,7 +3875,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -3892,7 +3897,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>55</v>
@@ -3912,7 +3917,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43891</v>
       </c>
@@ -3932,7 +3937,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43922</v>
       </c>
@@ -3952,7 +3957,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43952</v>
       </c>
@@ -3972,7 +3977,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43983</v>
       </c>
@@ -3998,7 +4003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44013</v>
       </c>
@@ -4018,7 +4023,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44044</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44075</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44105</v>
       </c>
@@ -4090,7 +4095,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -4110,7 +4115,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -4130,7 +4135,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>59</v>
       </c>
@@ -4148,7 +4153,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -4168,7 +4173,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -4188,7 +4193,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -4208,7 +4213,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -4228,7 +4233,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -4248,7 +4253,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44378</v>
       </c>
@@ -4294,7 +4299,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -4314,7 +4319,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
@@ -4334,7 +4339,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -4354,7 +4359,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
@@ -4374,7 +4379,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44531</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>58</v>
@@ -4420,7 +4425,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>62</v>
       </c>
@@ -4438,7 +4443,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4464,7 +4469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4508,7 +4513,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>75</v>
@@ -4528,7 +4533,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>76</v>
@@ -4548,7 +4553,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44652</v>
       </c>
@@ -4572,7 +4577,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>78</v>
@@ -4592,7 +4597,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>79</v>
@@ -4612,7 +4617,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44682</v>
       </c>
@@ -4636,7 +4641,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>81</v>
@@ -4656,7 +4661,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -4676,7 +4681,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4700,7 +4705,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -4720,7 +4725,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>79</v>
@@ -4740,7 +4745,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44743</v>
       </c>
@@ -4764,7 +4769,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>85</v>
@@ -4784,7 +4789,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>76</v>
@@ -4804,7 +4809,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44774</v>
       </c>
@@ -4828,7 +4833,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>86</v>
@@ -4848,7 +4853,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>82</v>
@@ -4868,7 +4873,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44805</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>48</v>
@@ -4912,7 +4917,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>88</v>
@@ -4932,7 +4937,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="49"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>72</v>
@@ -4952,7 +4957,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4972,7 +4977,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44835</v>
       </c>
@@ -4996,7 +5001,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>91</v>
@@ -5016,7 +5021,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>82</v>
@@ -5036,7 +5041,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44866</v>
       </c>
@@ -5060,7 +5065,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>93</v>
@@ -5080,7 +5085,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>73</v>
@@ -5100,7 +5105,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44896</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>66</v>
       </c>
@@ -5144,7 +5149,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44927</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -5192,7 +5197,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44958</v>
       </c>
@@ -5212,7 +5217,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44986</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>69</v>
@@ -5260,7 +5265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -5280,7 +5285,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -5326,7 +5331,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45078</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>69</v>
@@ -5374,7 +5379,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45108</v>
       </c>
@@ -5400,7 +5405,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>69</v>
@@ -5422,7 +5427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>69</v>
@@ -5444,27 +5449,41 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H117" s="39">
+        <v>3</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
+      <c r="B118" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
+      <c r="D118" s="39">
+        <v>1</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -5474,11 +5493,17 @@
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20"/>
+      <c r="K118" s="49">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
@@ -5487,14 +5512,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H119" s="39"/>
+      <c r="H119" s="39">
+        <v>1</v>
+      </c>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K119" s="49">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -5503,14 +5534,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="39">
+        <v>1</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K120" s="49">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
@@ -5519,12 +5556,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="39">
+        <v>2</v>
+      </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K121" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5540,7 +5581,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5556,7 +5597,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5572,7 +5613,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5588,7 +5629,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5604,7 +5645,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5620,7 +5661,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5636,7 +5677,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5652,7 +5693,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5668,7 +5709,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5684,7 +5725,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5700,7 +5741,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5716,7 +5757,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5732,7 +5773,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5748,7 +5789,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5764,7 +5805,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5780,7 +5821,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5796,7 +5837,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5812,7 +5853,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5828,7 +5869,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5844,7 +5885,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5860,7 +5901,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5876,7 +5917,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5892,7 +5933,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5908,7 +5949,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5924,7 +5965,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5940,7 +5981,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5956,7 +5997,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="15"/>
       <c r="C149" s="42"/>
@@ -5988,10 +6029,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6014,21 +6055,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="1" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>9</v>
       </c>
@@ -6041,7 +6082,7 @@
       <c r="D1" s="67"/>
       <c r="E1" s="68"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
@@ -6052,7 +6093,7 @@
       <c r="D2" s="66"/>
       <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>16</v>
       </c>
@@ -6067,14 +6108,14 @@
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
@@ -6085,7 +6126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>44903</v>
       </c>
@@ -6096,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>44911</v>
       </c>
@@ -6107,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>44914</v>
       </c>
@@ -6118,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>44916</v>
       </c>
@@ -6129,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>44917</v>
       </c>
@@ -6140,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>44918</v>
       </c>
@@ -6151,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="51">
         <v>44922</v>
       </c>
@@ -6162,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -6171,7 +6212,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>44904</v>
       </c>
@@ -6182,7 +6223,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>44909</v>
       </c>
@@ -6193,7 +6234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>44910</v>
       </c>
@@ -6204,7 +6245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>44915</v>
       </c>
@@ -6215,7 +6256,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>44923</v>
       </c>
@@ -6226,7 +6267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>44924</v>
       </c>
@@ -6237,22 +6278,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -6260,132 +6301,132 @@
         <v>10.094000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6397,10 +6438,10 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6413,28 +6454,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -6447,7 +6488,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6476,7 +6517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>21.247</v>
       </c>
@@ -6502,17 +6543,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6533,7 +6574,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6560,7 +6601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6586,7 +6627,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6612,7 +6653,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6638,7 +6679,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6664,7 +6705,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6690,7 +6731,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6716,7 +6757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6742,7 +6783,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6762,7 +6803,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6782,7 +6823,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6802,7 +6843,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6823,7 +6864,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6844,7 +6885,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6865,7 +6906,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6886,7 +6927,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6907,7 +6948,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6928,7 +6969,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6949,7 +6990,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6970,7 +7011,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6991,7 +7032,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7012,7 +7053,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7033,7 +7074,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7054,7 +7095,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7075,7 +7116,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7096,7 +7137,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7117,7 +7158,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7138,7 +7179,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7159,7 +7200,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7180,7 +7221,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7201,7 +7242,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7222,7 +7263,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7231,7 +7272,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7240,7 +7281,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7249,7 +7290,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7258,7 +7299,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7267,7 +7308,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7276,7 +7317,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7285,7 +7326,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7294,7 +7335,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7303,7 +7344,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7312,7 +7353,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7321,7 +7362,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7330,7 +7371,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7339,7 +7380,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7348,7 +7389,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7357,7 +7398,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7366,7 +7407,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7375,7 +7416,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7384,7 +7425,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7393,7 +7434,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7402,7 +7443,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7411,7 +7452,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7420,7 +7461,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7429,7 +7470,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7438,7 +7479,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7447,7 +7488,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7456,7 +7497,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7465,7 +7506,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7474,7 +7515,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7483,7 +7524,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,7 +1239,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1282,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1346,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1692,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1757,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1800,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1875,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2185,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2547,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3006,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.6920000000000215</v>
+        <v>12.192000000000021</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3177,7 +3177,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>86.917000000000002</v>
+        <v>89.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5671,13 +5671,15 @@
         <v>45231</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
@@ -5688,19 +5690,25 @@
       <c r="A127" s="40">
         <v>45261</v>
       </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
+      <c r="K127" s="49">
+        <v>45281</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,7 +1239,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1282,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1346,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1692,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1757,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1800,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1875,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2185,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2547,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K154" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="16"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="15"/>
@@ -3001,12 +3001,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A106" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3177,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>89.417000000000002</v>
+        <v>87.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5711,10 +5711,10 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B128" s="20"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
@@ -5723,16 +5723,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H128" s="39"/>
+      <c r="H128" s="39">
+        <v>1</v>
+      </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B129" s="20"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
@@ -5741,14 +5745,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="39"/>
+      <c r="H129" s="39">
+        <v>1</v>
+      </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>45323</v>
+      <c r="A130" s="48" t="s">
+        <v>109</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5766,7 +5774,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5784,7 +5792,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5802,7 +5810,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5820,7 +5828,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5838,7 +5846,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5856,7 +5864,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5874,7 +5882,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5892,7 +5900,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5910,7 +5918,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5928,7 +5936,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5945,7 +5953,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <v>45597</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -5961,7 +5971,9 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <v>45627</v>
+      </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
       <c r="D142" s="39"/>
@@ -6121,20 +6133,52 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="43"/>
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="42" t="str">
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H152" s="43"/>
+      <c r="H152" s="39"/>
       <c r="I152" s="9"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="15"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="41"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="43"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/PEREA, BABEL.xlsx
+++ b/NEW HR/PEREA, BABEL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,7 +1239,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1282,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1346,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1633,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1692,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1757,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1800,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1875,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2185,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2425,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2491,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2547,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,9 +3004,9 @@
   <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A112" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
+      <selection pane="bottomLeft" activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5776,7 +5776,9 @@
       <c r="A131" s="40">
         <v>45292</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
@@ -5788,7 +5790,9 @@
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
